--- a/Annotations/New/TheLiesOfLockeLamora.xlsx
+++ b/Annotations/New/TheLiesOfLockeLamora.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="lockelamora" sheetId="1" r:id="rId1"/>
@@ -1877,15 +1877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P305"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I300" sqref="I300"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="2" customWidth="1"/>
@@ -1951,7 +1951,7 @@
     <row r="2" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.94036283462646408</v>
+        <v>0.96868131053349871</v>
       </c>
       <c r="B2" s="2">
         <v>683</v>
@@ -1981,7 +1981,7 @@
     <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46044216471834365</v>
+        <v>2.7717061884282579E-2</v>
       </c>
       <c r="B3" s="2">
         <v>684</v>
@@ -2005,7 +2005,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49463657312934839</v>
+        <v>0.77784279311629689</v>
       </c>
       <c r="B4" s="2">
         <v>685</v>
@@ -2032,7 +2032,7 @@
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66826530706399545</v>
+        <v>0.54888236801452872</v>
       </c>
       <c r="B5" s="2">
         <v>686</v>
@@ -2056,7 +2056,7 @@
     <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64739887620425851</v>
+        <v>0.83963173115738199</v>
       </c>
       <c r="B6" s="2">
         <v>687</v>
@@ -2077,7 +2077,7 @@
     <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95065632227004837</v>
+        <v>0.30328188613709239</v>
       </c>
       <c r="B7" s="2">
         <v>688</v>
@@ -2101,7 +2101,7 @@
     <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85446787887294307</v>
+        <v>0.90261307637133681</v>
       </c>
       <c r="B8" s="2">
         <v>689</v>
@@ -2128,7 +2128,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29670721175851222</v>
+        <v>0.35886380490173053</v>
       </c>
       <c r="B9" s="2">
         <v>690</v>
@@ -2152,7 +2152,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54922378966538066</v>
+        <v>0.37939642342971192</v>
       </c>
       <c r="B10" s="2">
         <v>691</v>
@@ -2176,7 +2176,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42382898912665401</v>
+        <v>0.54436222881587792</v>
       </c>
       <c r="B11" s="2">
         <v>692</v>
@@ -2197,7 +2197,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90604652418482723</v>
+        <v>0.43858041223988709</v>
       </c>
       <c r="B12" s="2">
         <v>693</v>
@@ -2221,7 +2221,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14544685442194782</v>
+        <v>0.58911003102235548</v>
       </c>
       <c r="B13" s="2">
         <v>694</v>
@@ -2245,7 +2245,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17530806809485722</v>
+        <v>0.91956480976541433</v>
       </c>
       <c r="B14" s="2">
         <v>695</v>
@@ -2269,7 +2269,7 @@
     <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19295313987260521</v>
+        <v>0.21154319210290295</v>
       </c>
       <c r="B15" s="2">
         <v>696</v>
@@ -2290,7 +2290,7 @@
     <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61058266686177465</v>
+        <v>0.17299873789629483</v>
       </c>
       <c r="B16" s="2">
         <v>697</v>
@@ -2311,7 +2311,7 @@
     <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78767687699823175</v>
+        <v>0.30853716196858072</v>
       </c>
       <c r="B17" s="2">
         <v>698</v>
@@ -2335,7 +2335,7 @@
     <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38451582694920539</v>
+        <v>2.8551841869337569E-3</v>
       </c>
       <c r="B18" s="2">
         <v>699</v>
@@ -2356,7 +2356,7 @@
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66758198129402824</v>
+        <v>0.86074367137398078</v>
       </c>
       <c r="B19" s="2">
         <v>700</v>
@@ -2377,7 +2377,7 @@
     <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34449639135160093</v>
+        <v>0.31677536725919775</v>
       </c>
       <c r="B20" s="2">
         <v>701</v>
@@ -2401,7 +2401,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7611020661519059</v>
+        <v>0.81631952333760416</v>
       </c>
       <c r="B21" s="2">
         <v>702</v>
@@ -2428,7 +2428,7 @@
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8554762603755353E-2</v>
+        <v>0.79437306409498931</v>
       </c>
       <c r="B22" s="2">
         <v>703</v>
@@ -2452,7 +2452,7 @@
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28252879440565593</v>
+        <v>0.43459438765093661</v>
       </c>
       <c r="B23" s="2">
         <v>704</v>
@@ -2482,7 +2482,7 @@
     <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79378283697376484</v>
+        <v>8.5335565331757124E-2</v>
       </c>
       <c r="B24" s="2">
         <v>705</v>
@@ -2506,7 +2506,7 @@
     <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43515026177916838</v>
+        <v>0.42903748003102471</v>
       </c>
       <c r="B25" s="2">
         <v>706</v>
@@ -2533,7 +2533,7 @@
     <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91709497484077618</v>
+        <v>0.71594502326890519</v>
       </c>
       <c r="B26" s="2">
         <v>707</v>
@@ -2557,7 +2557,7 @@
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66634921509649769</v>
+        <v>0.78707940375647401</v>
       </c>
       <c r="B27" s="2">
         <v>708</v>
@@ -2578,7 +2578,7 @@
     <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15696032706582086</v>
+        <v>0.58260478945448435</v>
       </c>
       <c r="B28" s="2">
         <v>709</v>
@@ -2602,7 +2602,7 @@
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37763835390644618</v>
+        <v>0.64773976623458385</v>
       </c>
       <c r="B29" s="2">
         <v>710</v>
@@ -2626,7 +2626,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3911613528463E-2</v>
+        <v>0.47816535134517368</v>
       </c>
       <c r="B30" s="2">
         <v>711</v>
@@ -2650,7 +2650,7 @@
     <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1775169634326752</v>
+        <v>0.42061017241495946</v>
       </c>
       <c r="B31" s="2">
         <v>712</v>
@@ -2671,7 +2671,7 @@
     <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31307833105391958</v>
+        <v>0.16719788457069806</v>
       </c>
       <c r="B32" s="2">
         <v>713</v>
@@ -2695,7 +2695,7 @@
     <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15122429912236246</v>
+        <v>0.4148628165835837</v>
       </c>
       <c r="B33" s="2">
         <v>714</v>
@@ -2719,7 +2719,7 @@
     <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68761975667498043</v>
+        <v>5.6898126887139466E-2</v>
       </c>
       <c r="B34" s="2">
         <v>715</v>
@@ -2743,7 +2743,7 @@
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54125990138436786</v>
+        <v>0.81697919188455548</v>
       </c>
       <c r="B35" s="2">
         <v>716</v>
@@ -2767,7 +2767,7 @@
     <row r="36" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53688871698143192</v>
+        <v>0.12751404863124638</v>
       </c>
       <c r="B36" s="2">
         <v>717</v>
@@ -2791,7 +2791,7 @@
     <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49794774166419442</v>
+        <v>0.85652942656252151</v>
       </c>
       <c r="B37" s="2">
         <v>718</v>
@@ -2815,7 +2815,7 @@
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6906369705511668</v>
+        <v>0.26566253079795432</v>
       </c>
       <c r="B38" s="2">
         <v>719</v>
@@ -2839,7 +2839,7 @@
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37349672328359884</v>
+        <v>0.51742052245709669</v>
       </c>
       <c r="B39" s="2">
         <v>720</v>
@@ -2863,7 +2863,7 @@
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31920106886992383</v>
+        <v>0.15268134418355228</v>
       </c>
       <c r="B40" s="2">
         <v>721</v>
@@ -2884,7 +2884,7 @@
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95737172347096056</v>
+        <v>0.24638786137764668</v>
       </c>
       <c r="B41" s="2">
         <v>722</v>
@@ -2911,7 +2911,7 @@
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52045676805166585</v>
+        <v>0.71236825211545074</v>
       </c>
       <c r="B42" s="2">
         <v>723</v>
@@ -2935,7 +2935,7 @@
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70659240025302239</v>
+        <v>0.46776379590454031</v>
       </c>
       <c r="B43" s="2">
         <v>724</v>
@@ -2968,7 +2968,7 @@
     <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4935237852471537E-2</v>
+        <v>0.23438373385961142</v>
       </c>
       <c r="B44" s="2">
         <v>725</v>
@@ -2992,7 +2992,7 @@
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12394873328597089</v>
+        <v>0.89220721942389702</v>
       </c>
       <c r="B45" s="2">
         <v>726</v>
@@ -3016,7 +3016,7 @@
     <row r="46" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57693474673004497</v>
+        <v>0.92550414963301564</v>
       </c>
       <c r="B46" s="2">
         <v>727</v>
@@ -3040,7 +3040,7 @@
     <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93045518442024577</v>
+        <v>0.48050651942812639</v>
       </c>
       <c r="B47" s="2">
         <v>728</v>
@@ -3061,7 +3061,7 @@
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6316750027222455E-2</v>
+        <v>0.59180245798109377</v>
       </c>
       <c r="B48" s="2">
         <v>729</v>
@@ -3085,7 +3085,7 @@
     <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3977880770240332E-2</v>
+        <v>1.4894469672186106E-2</v>
       </c>
       <c r="B49" s="2">
         <v>730</v>
@@ -3106,7 +3106,7 @@
     <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2476121338999252</v>
+        <v>0.35449777222337597</v>
       </c>
       <c r="B50" s="2">
         <v>731</v>
@@ -3127,7 +3127,7 @@
     <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3852350099512689E-2</v>
+        <v>6.4907695483325201E-2</v>
       </c>
       <c r="B51" s="2">
         <v>732</v>
@@ -3151,7 +3151,7 @@
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17412349454852993</v>
+        <v>0.82034405069387806</v>
       </c>
       <c r="B52" s="2">
         <v>733</v>
@@ -3175,7 +3175,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50171583784618512</v>
+        <v>0.72325778669432106</v>
       </c>
       <c r="B53" s="2">
         <v>734</v>
@@ -3199,7 +3199,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22031191982141929</v>
+        <v>0.2702754175631914</v>
       </c>
       <c r="B54" s="2">
         <v>735</v>
@@ -3223,7 +3223,7 @@
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39522217595664588</v>
+        <v>8.8818827567829217E-2</v>
       </c>
       <c r="B55" s="2">
         <v>736</v>
@@ -3247,7 +3247,7 @@
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19038733246423611</v>
+        <v>0.4541317280552809</v>
       </c>
       <c r="B56" s="2">
         <v>737</v>
@@ -3271,7 +3271,7 @@
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13131634032201789</v>
+        <v>0.2068821169799232</v>
       </c>
       <c r="B57" s="2">
         <v>738</v>
@@ -3298,7 +3298,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74959108215171344</v>
+        <v>0.78213637930871505</v>
       </c>
       <c r="B58" s="2">
         <v>739</v>
@@ -3322,7 +3322,7 @@
     <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4101728149322772</v>
+        <v>0.45364311438576799</v>
       </c>
       <c r="B59" s="2">
         <v>740</v>
@@ -3346,7 +3346,7 @@
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18003415695119263</v>
+        <v>0.21355148630353626</v>
       </c>
       <c r="B60" s="2">
         <v>741</v>
@@ -3373,7 +3373,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79433070216923496</v>
+        <v>0.24027392921162749</v>
       </c>
       <c r="B61" s="2">
         <v>742</v>
@@ -3397,7 +3397,7 @@
     <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84731353819336175</v>
+        <v>0.56682724394843742</v>
       </c>
       <c r="B62" s="2">
         <v>743</v>
@@ -3424,7 +3424,7 @@
     <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7539645096112777</v>
+        <v>0.50725610379433672</v>
       </c>
       <c r="B63" s="2">
         <v>744</v>
@@ -3448,7 +3448,7 @@
     <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74107378191970663</v>
+        <v>0.97384488944107972</v>
       </c>
       <c r="B64" s="2">
         <v>745</v>
@@ -3472,7 +3472,7 @@
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51426760705566554</v>
+        <v>0.9218572401231846</v>
       </c>
       <c r="B65" s="2">
         <v>746</v>
@@ -3496,7 +3496,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.77113932804946861</v>
+        <v>0.86672060235579595</v>
       </c>
       <c r="B66" s="2">
         <v>747</v>
@@ -3523,7 +3523,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13411521741124044</v>
+        <v>0.51495826938962452</v>
       </c>
       <c r="B67" s="2">
         <v>748</v>
@@ -3544,7 +3544,7 @@
     <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42016023643042888</v>
+        <v>0.86727411119116138</v>
       </c>
       <c r="B68" s="2">
         <v>749</v>
@@ -3571,7 +3571,7 @@
     <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41732665168586358</v>
+        <v>0.90052853635114161</v>
       </c>
       <c r="B69" s="2">
         <v>750</v>
@@ -3598,7 +3598,7 @@
     <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57155105748070023</v>
+        <v>0.36402884913306766</v>
       </c>
       <c r="B70" s="2">
         <v>751</v>
@@ -3622,7 +3622,7 @@
     <row r="71" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34120886532733441</v>
+        <v>0.59622652713241053</v>
       </c>
       <c r="B71" s="2">
         <v>752</v>
@@ -3643,7 +3643,7 @@
     <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89308554881162827</v>
+        <v>0.55956606744269621</v>
       </c>
       <c r="B72" s="2">
         <v>753</v>
@@ -3664,7 +3664,7 @@
     <row r="73" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64033259336716486</v>
+        <v>0.32504435310109703</v>
       </c>
       <c r="B73" s="2">
         <v>754</v>
@@ -3691,7 +3691,7 @@
     <row r="74" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30884108366366281</v>
+        <v>0.92653894539557069</v>
       </c>
       <c r="B74" s="2">
         <v>755</v>
@@ -3718,7 +3718,7 @@
     <row r="75" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59074879352332332</v>
+        <v>0.73705217426948022</v>
       </c>
       <c r="B75" s="2">
         <v>756</v>
@@ -3742,7 +3742,7 @@
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24420013996266898</v>
+        <v>0.5585051923022083</v>
       </c>
       <c r="B76" s="2">
         <v>757</v>
@@ -3769,7 +3769,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51470254468842547</v>
+        <v>0.29248410996503826</v>
       </c>
       <c r="B77" s="2">
         <v>758</v>
@@ -3790,7 +3790,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47389334550586681</v>
+        <v>0.50787911312364786</v>
       </c>
       <c r="B78" s="2">
         <v>759</v>
@@ -3814,7 +3814,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23663466604920724</v>
+        <v>0.19234823358443931</v>
       </c>
       <c r="B79" s="2">
         <v>760</v>
@@ -3838,7 +3838,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2776378737563827E-2</v>
+        <v>0.2320605585993889</v>
       </c>
       <c r="B80" s="2">
         <v>761</v>
@@ -3865,7 +3865,7 @@
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.885105724542905E-2</v>
+        <v>0.77428167652072521</v>
       </c>
       <c r="B81" s="2">
         <v>762</v>
@@ -3889,7 +3889,7 @@
     <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45508703174734277</v>
+        <v>0.94906439775354567</v>
       </c>
       <c r="B82" s="2">
         <v>763</v>
@@ -3913,7 +3913,7 @@
     <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74618227826022521</v>
+        <v>7.5281561913016826E-2</v>
       </c>
       <c r="B83" s="2">
         <v>764</v>
@@ -3937,7 +3937,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58127195310651958</v>
+        <v>0.87071748101669966</v>
       </c>
       <c r="B84" s="2">
         <v>765</v>
@@ -3961,7 +3961,7 @@
     <row r="85" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47518752900703942</v>
+        <v>0.98329401782566583</v>
       </c>
       <c r="B85" s="2">
         <v>766</v>
@@ -3985,7 +3985,7 @@
     <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11249836667347424</v>
+        <v>0.94686780014873684</v>
       </c>
       <c r="B86" s="2">
         <v>767</v>
@@ -4006,7 +4006,7 @@
     <row r="87" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97609012958073493</v>
+        <v>0.61864522562542734</v>
       </c>
       <c r="B87" s="2">
         <v>768</v>
@@ -4027,7 +4027,7 @@
     <row r="88" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10410789631236583</v>
+        <v>0.92922749613061362</v>
       </c>
       <c r="B88" s="2">
         <v>769</v>
@@ -4048,7 +4048,7 @@
     <row r="89" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73251413181209213</v>
+        <v>0.98518303464886336</v>
       </c>
       <c r="B89" s="2">
         <v>770</v>
@@ -4069,7 +4069,7 @@
     <row r="90" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42534383375986318</v>
+        <v>0.66735019858458555</v>
       </c>
       <c r="B90" s="2">
         <v>771</v>
@@ -4093,7 +4093,7 @@
     <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7564811561397162E-2</v>
+        <v>0.47418821206796069</v>
       </c>
       <c r="B91" s="2">
         <v>772</v>
@@ -4117,7 +4117,7 @@
     <row r="92" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90875599113486849</v>
+        <v>0.13300227373342866</v>
       </c>
       <c r="B92" s="2">
         <v>773</v>
@@ -4141,7 +4141,7 @@
     <row r="93" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51787597525772533</v>
+        <v>0.41765862804653076</v>
       </c>
       <c r="B93" s="2">
         <v>774</v>
@@ -4162,7 +4162,7 @@
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12010599696698365</v>
+        <v>0.17429183511624402</v>
       </c>
       <c r="B94" s="2">
         <v>775</v>
@@ -4183,7 +4183,7 @@
     <row r="95" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69316925106826988</v>
+        <v>0.25226574994356399</v>
       </c>
       <c r="B95" s="2">
         <v>776</v>
@@ -4204,7 +4204,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45581108999863862</v>
+        <v>0.6429294565150625</v>
       </c>
       <c r="B96" s="2">
         <v>777</v>
@@ -4225,7 +4225,7 @@
     <row r="97" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89516242306806693</v>
+        <v>0.20039039318910445</v>
       </c>
       <c r="B97" s="2">
         <v>778</v>
@@ -4252,7 +4252,7 @@
     <row r="98" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69711188463414686</v>
+        <v>3.4481265600744937E-2</v>
       </c>
       <c r="B98" s="2">
         <v>779</v>
@@ -4276,7 +4276,7 @@
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76657432722577046</v>
+        <v>0.78998541589074056</v>
       </c>
       <c r="B99" s="2">
         <v>780</v>
@@ -4300,7 +4300,7 @@
     <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22212021725626285</v>
+        <v>0.5145979461836151</v>
       </c>
       <c r="B100" s="2">
         <v>781</v>
@@ -4324,7 +4324,7 @@
     <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23340361923573505</v>
+        <v>0.63155190738772282</v>
       </c>
       <c r="B101" s="2">
         <v>782</v>
@@ -4348,7 +4348,7 @@
     <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63542364646741234</v>
+        <v>0.98342601102082916</v>
       </c>
       <c r="B102" s="2">
         <v>783</v>
@@ -4372,7 +4372,7 @@
     <row r="103" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12340132326668651</v>
+        <v>0.31382728268641269</v>
       </c>
       <c r="B103" s="2">
         <v>784</v>
@@ -4393,7 +4393,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65442468926431896</v>
+        <v>0.31772799581205835</v>
       </c>
       <c r="B104" s="2">
         <v>785</v>
@@ -4417,7 +4417,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69555607504383665</v>
+        <v>0.88035125215607912</v>
       </c>
       <c r="B105" s="2">
         <v>786</v>
@@ -4441,7 +4441,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99435877794585825</v>
+        <v>0.42928152879316073</v>
       </c>
       <c r="B106" s="2">
         <v>787</v>
@@ -4465,7 +4465,7 @@
     <row r="107" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61776541297961485</v>
+        <v>0.38140448144900385</v>
       </c>
       <c r="B107" s="2">
         <v>788</v>
@@ -4489,7 +4489,7 @@
     <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65297242560342994</v>
+        <v>0.7291560077858108</v>
       </c>
       <c r="B108" s="2">
         <v>789</v>
@@ -4513,7 +4513,7 @@
     <row r="109" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93636507262135105</v>
+        <v>0.53722580997982405</v>
       </c>
       <c r="B109" s="2">
         <v>790</v>
@@ -4543,7 +4543,7 @@
     <row r="110" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14251193556905206</v>
+        <v>9.1237624199665524E-2</v>
       </c>
       <c r="B110" s="2">
         <v>791</v>
@@ -4567,7 +4567,7 @@
     <row r="111" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34538718604739116</v>
+        <v>0.96307758809495325</v>
       </c>
       <c r="B111" s="2">
         <v>792</v>
@@ -4591,7 +4591,7 @@
     <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9799515057075183E-4</v>
+        <v>0.46111332635404312</v>
       </c>
       <c r="B112" s="2">
         <v>793</v>
@@ -4615,7 +4615,7 @@
     <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9927300965358774</v>
+        <v>0.87321306913293983</v>
       </c>
       <c r="B113" s="2">
         <v>794</v>
@@ -4642,7 +4642,7 @@
     <row r="114" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68706745377949829</v>
+        <v>0.66666410325062631</v>
       </c>
       <c r="B114" s="2">
         <v>795</v>
@@ -4669,7 +4669,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56456984853484316</v>
+        <v>0.13580411384046709</v>
       </c>
       <c r="B115" s="2">
         <v>796</v>
@@ -4696,7 +4696,7 @@
     <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50330358511986228</v>
+        <v>0.65553995115481056</v>
       </c>
       <c r="B116" s="2">
         <v>797</v>
@@ -4726,7 +4726,7 @@
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61121614466279262</v>
+        <v>0.50720827432095117</v>
       </c>
       <c r="B117" s="2">
         <v>798</v>
@@ -4750,7 +4750,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5429214720082276</v>
+        <v>0.22081003900330476</v>
       </c>
       <c r="B118" s="2">
         <v>799</v>
@@ -4774,7 +4774,7 @@
     <row r="119" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3827870263216131</v>
+        <v>0.50349109202886677</v>
       </c>
       <c r="B119" s="2">
         <v>800</v>
@@ -4798,7 +4798,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92650590081558615</v>
+        <v>0.79485111827322041</v>
       </c>
       <c r="B120" s="2">
         <v>801</v>
@@ -4822,7 +4822,7 @@
     <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95912560214542464</v>
+        <v>0.73435454295006586</v>
       </c>
       <c r="B121" s="2">
         <v>802</v>
@@ -4846,7 +4846,7 @@
     <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19058836686353509</v>
+        <v>8.0067415847217549E-2</v>
       </c>
       <c r="B122" s="2">
         <v>803</v>
@@ -4870,7 +4870,7 @@
     <row r="123" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26388396698954564</v>
+        <v>5.3822712505723791E-2</v>
       </c>
       <c r="B123" s="2">
         <v>804</v>
@@ -4900,7 +4900,7 @@
     <row r="124" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19073806830422979</v>
+        <v>0.28782098433031644</v>
       </c>
       <c r="B124" s="2">
         <v>805</v>
@@ -4930,7 +4930,7 @@
     <row r="125" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86741071014906956</v>
+        <v>7.0154640345440389E-2</v>
       </c>
       <c r="B125" s="2">
         <v>806</v>
@@ -4954,7 +4954,7 @@
     <row r="126" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68100469206747927</v>
+        <v>0.10631515502666755</v>
       </c>
       <c r="B126" s="2">
         <v>807</v>
@@ -4981,7 +4981,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83130147622446082</v>
+        <v>0.64645579695946809</v>
       </c>
       <c r="B127" s="2">
         <v>808</v>
@@ -5008,7 +5008,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.704823022111579E-2</v>
+        <v>0.78896518765205115</v>
       </c>
       <c r="B128" s="2">
         <v>809</v>
@@ -5029,7 +5029,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36801958384627753</v>
+        <v>0.55299467797009505</v>
       </c>
       <c r="B129" s="2">
         <v>810</v>
@@ -5053,7 +5053,7 @@
     <row r="130" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.3218604709551901</v>
+        <v>0.97918877115383818</v>
       </c>
       <c r="B130" s="2">
         <v>811</v>
@@ -5077,7 +5077,7 @@
     <row r="131" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18940102849354612</v>
+        <v>0.85751766841775345</v>
       </c>
       <c r="B131" s="2">
         <v>812</v>
@@ -5098,7 +5098,7 @@
     <row r="132" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34242371678910877</v>
+        <v>0.49124481895876426</v>
       </c>
       <c r="B132" s="2">
         <v>813</v>
@@ -5119,7 +5119,7 @@
     <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61092729541754232</v>
+        <v>0.39041378140883165</v>
       </c>
       <c r="B133" s="2">
         <v>814</v>
@@ -5143,7 +5143,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69291419773662399</v>
+        <v>0.23766713818383567</v>
       </c>
       <c r="B134" s="2">
         <v>815</v>
@@ -5167,7 +5167,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32637189505738096</v>
+        <v>0.38282990776793546</v>
       </c>
       <c r="B135" s="2">
         <v>816</v>
@@ -5191,7 +5191,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9151814165829375E-2</v>
+        <v>0.68991035951325896</v>
       </c>
       <c r="B136" s="2">
         <v>817</v>
@@ -5215,7 +5215,7 @@
     <row r="137" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78747911758631228</v>
+        <v>0.41152814472801835</v>
       </c>
       <c r="B137" s="2">
         <v>818</v>
@@ -5242,7 +5242,7 @@
     <row r="138" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77992674797208661</v>
+        <v>0.68122357637396291</v>
       </c>
       <c r="B138" s="2">
         <v>819</v>
@@ -5263,7 +5263,7 @@
     <row r="139" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70710259002782194</v>
+        <v>0.7399661124688045</v>
       </c>
       <c r="B139" s="2">
         <v>820</v>
@@ -5290,7 +5290,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24053563062492767</v>
+        <v>0.29692561314836241</v>
       </c>
       <c r="B140" s="2">
         <v>821</v>
@@ -5314,7 +5314,7 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.616635509365691</v>
+        <v>0.13178927290117881</v>
       </c>
       <c r="B141" s="2">
         <v>822</v>
@@ -5338,7 +5338,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12496269717144737</v>
+        <v>0.59428301636786662</v>
       </c>
       <c r="B142" s="2">
         <v>823</v>
@@ -5362,7 +5362,7 @@
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2458877490849144</v>
+        <v>0.7623671469528468</v>
       </c>
       <c r="B143" s="2">
         <v>824</v>
@@ -5383,7 +5383,7 @@
     <row r="144" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75047190709970324</v>
+        <v>0.61154668975087279</v>
       </c>
       <c r="B144" s="2">
         <v>825</v>
@@ -5404,7 +5404,7 @@
     <row r="145" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75839222582481458</v>
+        <v>0.49254134493083213</v>
       </c>
       <c r="B145" s="2">
         <v>826</v>
@@ -5431,7 +5431,7 @@
     <row r="146" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71027054458315064</v>
+        <v>0.42207880051861046</v>
       </c>
       <c r="B146" s="2">
         <v>827</v>
@@ -5458,7 +5458,7 @@
     <row r="147" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16247463944159157</v>
+        <v>0.6517174825643004</v>
       </c>
       <c r="B147" s="2">
         <v>828</v>
@@ -5479,7 +5479,7 @@
     <row r="148" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88333508094230717</v>
+        <v>0.84474482381458083</v>
       </c>
       <c r="B148" s="2">
         <v>829</v>
@@ -5500,7 +5500,7 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3922096382789135E-2</v>
+        <v>4.0506613851704842E-2</v>
       </c>
       <c r="B149" s="2">
         <v>830</v>
@@ -5524,7 +5524,7 @@
     <row r="150" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44313716041955742</v>
+        <v>0.14318510007424434</v>
       </c>
       <c r="B150" s="2">
         <v>831</v>
@@ -5545,7 +5545,7 @@
     <row r="151" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60051046323431601</v>
+        <v>0.65090608113168846</v>
       </c>
       <c r="B151" s="2">
         <v>832</v>
@@ -5575,7 +5575,7 @@
     <row r="152" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77513225435186905</v>
+        <v>0.56900736313462186</v>
       </c>
       <c r="B152" s="2">
         <v>833</v>
@@ -5596,7 +5596,7 @@
     <row r="153" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79688975168431597</v>
+        <v>0.52932090416644006</v>
       </c>
       <c r="B153" s="2">
         <v>834</v>
@@ -5617,7 +5617,7 @@
     <row r="154" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57359372762389416</v>
+        <v>0.92440568867496653</v>
       </c>
       <c r="B154" s="2">
         <v>835</v>
@@ -5638,7 +5638,7 @@
     <row r="155" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68964744311749504</v>
+        <v>0.30020178590013991</v>
       </c>
       <c r="B155" s="2">
         <v>836</v>
@@ -5659,7 +5659,7 @@
     <row r="156" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63504470543735436</v>
+        <v>0.782674382045766</v>
       </c>
       <c r="B156" s="2">
         <v>837</v>
@@ -5683,7 +5683,7 @@
     <row r="157" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93262990041908012</v>
+        <v>0.55793476447833534</v>
       </c>
       <c r="B157" s="2">
         <v>838</v>
@@ -5704,7 +5704,7 @@
     <row r="158" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59734246617035913</v>
+        <v>0.52931336946579544</v>
       </c>
       <c r="B158" s="2">
         <v>839</v>
@@ -5725,7 +5725,7 @@
     <row r="159" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3572141362969403E-2</v>
+        <v>0.81104267327731083</v>
       </c>
       <c r="B159" s="2">
         <v>840</v>
@@ -5746,7 +5746,7 @@
     <row r="160" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63801982068317997</v>
+        <v>0.65941198823036895</v>
       </c>
       <c r="B160" s="2">
         <v>841</v>
@@ -5767,7 +5767,7 @@
     <row r="161" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44840408898289374</v>
+        <v>0.17746245795352256</v>
       </c>
       <c r="B161" s="2">
         <v>842</v>
@@ -5788,7 +5788,7 @@
     <row r="162" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8789810509150926</v>
+        <v>0.94011291219185822</v>
       </c>
       <c r="B162" s="2">
         <v>843</v>
@@ -5809,7 +5809,7 @@
     <row r="163" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90382985840258268</v>
+        <v>0.98337487358433384</v>
       </c>
       <c r="B163" s="2">
         <v>844</v>
@@ -5836,7 +5836,7 @@
     <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5362467918858147</v>
+        <v>0.59304593956216367</v>
       </c>
       <c r="B164" s="2">
         <v>845</v>
@@ -5857,7 +5857,7 @@
     <row r="165" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29209738547471165</v>
+        <v>0.69484230139061798</v>
       </c>
       <c r="B165" s="2">
         <v>846</v>
@@ -5878,7 +5878,7 @@
     <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.279654905609381</v>
+        <v>0.96467242640356932</v>
       </c>
       <c r="B166" s="2">
         <v>847</v>
@@ -5902,7 +5902,7 @@
     <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10703282248002455</v>
+        <v>0.77312980546926069</v>
       </c>
       <c r="B167" s="2">
         <v>848</v>
@@ -5929,7 +5929,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13115158255109038</v>
+        <v>0.50134244589313148</v>
       </c>
       <c r="B168" s="2">
         <v>849</v>
@@ -5953,7 +5953,7 @@
     <row r="169" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2275448368672142E-2</v>
+        <v>0.20768724135167482</v>
       </c>
       <c r="B169" s="2">
         <v>850</v>
@@ -5977,7 +5977,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20833771195943074</v>
+        <v>9.7149535613749727E-2</v>
       </c>
       <c r="B170" s="2">
         <v>851</v>
@@ -5998,7 +5998,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58733769280097015</v>
+        <v>0.45844466256413718</v>
       </c>
       <c r="B171" s="2">
         <v>852</v>
@@ -6019,7 +6019,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46494302225685147</v>
+        <v>0.9820602751587475</v>
       </c>
       <c r="B172" s="2">
         <v>853</v>
@@ -6046,7 +6046,7 @@
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71587212518811272</v>
+        <v>0.39701918429029615</v>
       </c>
       <c r="B173" s="2">
         <v>854</v>
@@ -6070,7 +6070,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3293201228979523E-2</v>
+        <v>0.87653310964759934</v>
       </c>
       <c r="B174" s="2">
         <v>855</v>
@@ -6091,7 +6091,7 @@
     <row r="175" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14040753795796723</v>
+        <v>0.27767880122007649</v>
       </c>
       <c r="B175" s="2">
         <v>856</v>
@@ -6112,7 +6112,7 @@
     <row r="176" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3166976162226405E-2</v>
+        <v>0.99104614628617971</v>
       </c>
       <c r="B176" s="2">
         <v>857</v>
@@ -6136,7 +6136,7 @@
     <row r="177" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70603614706317774</v>
+        <v>6.3215638759763437E-2</v>
       </c>
       <c r="B177" s="2">
         <v>858</v>
@@ -6163,7 +6163,7 @@
     <row r="178" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41272113838582269</v>
+        <v>0.55003618955621714</v>
       </c>
       <c r="B178" s="2">
         <v>859</v>
@@ -6193,7 +6193,7 @@
     <row r="179" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57693631904304365</v>
+        <v>0.21566200979118666</v>
       </c>
       <c r="B179" s="2">
         <v>860</v>
@@ -6220,7 +6220,7 @@
     <row r="180" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57658835439998013</v>
+        <v>0.90406698292825116</v>
       </c>
       <c r="B180" s="2">
         <v>861</v>
@@ -6247,7 +6247,7 @@
     <row r="181" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77515283853285122</v>
+        <v>0.22837964185898052</v>
       </c>
       <c r="B181" s="2">
         <v>862</v>
@@ -6277,7 +6277,7 @@
     <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99857277434718461</v>
+        <v>0.63560927746837659</v>
       </c>
       <c r="B182" s="2">
         <v>863</v>
@@ -6301,7 +6301,7 @@
     <row r="183" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62595315921224803</v>
+        <v>0.35124190098543251</v>
       </c>
       <c r="B183" s="2">
         <v>864</v>
@@ -6325,7 +6325,7 @@
     <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53836637854335834</v>
+        <v>0.90127039389763297</v>
       </c>
       <c r="B184" s="2">
         <v>865</v>
@@ -6346,7 +6346,7 @@
     <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83595871455666326</v>
+        <v>0.877386952820425</v>
       </c>
       <c r="B185" s="2">
         <v>866</v>
@@ -6370,7 +6370,7 @@
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58563389286167045</v>
+        <v>0.21795920150434311</v>
       </c>
       <c r="B186" s="2">
         <v>867</v>
@@ -6394,7 +6394,7 @@
     <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55510756252587001</v>
+        <v>0.48142835259645611</v>
       </c>
       <c r="B187" s="2">
         <v>868</v>
@@ -6418,7 +6418,7 @@
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63594178623614839</v>
+        <v>0.13308525156328388</v>
       </c>
       <c r="B188" s="2">
         <v>869</v>
@@ -6439,7 +6439,7 @@
     <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29406167713154674</v>
+        <v>0.35722505762776013</v>
       </c>
       <c r="B189" s="2">
         <v>870</v>
@@ -6460,7 +6460,7 @@
     <row r="190" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1019532790313264E-2</v>
+        <v>0.4734429307515502</v>
       </c>
       <c r="B190" s="2">
         <v>871</v>
@@ -6484,7 +6484,7 @@
     <row r="191" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6463803220860278</v>
+        <v>0.56294594107644691</v>
       </c>
       <c r="B191" s="2">
         <v>872</v>
@@ -6505,7 +6505,7 @@
     <row r="192" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96205989153947469</v>
+        <v>0.47948763210407608</v>
       </c>
       <c r="B192" s="2">
         <v>873</v>
@@ -6526,7 +6526,7 @@
     <row r="193" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52558864777458325</v>
+        <v>0.39390578396366338</v>
       </c>
       <c r="B193" s="2">
         <v>874</v>
@@ -6547,7 +6547,7 @@
     <row r="194" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.27277299861695181</v>
+        <v>0.1353000508734129</v>
       </c>
       <c r="B194" s="2">
         <v>875</v>
@@ -6577,7 +6577,7 @@
     <row r="195" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21816187932582065</v>
+        <v>0.39403731170173562</v>
       </c>
       <c r="B195" s="2">
         <v>876</v>
@@ -6598,7 +6598,7 @@
     <row r="196" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29050476827410443</v>
+        <v>0.67341036331024395</v>
       </c>
       <c r="B196" s="2">
         <v>877</v>
@@ -6622,7 +6622,7 @@
     <row r="197" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82436136820739214</v>
+        <v>0.86197121533700272</v>
       </c>
       <c r="B197" s="2">
         <v>878</v>
@@ -6646,7 +6646,7 @@
     <row r="198" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95055379246231519</v>
+        <v>0.6637813587062743</v>
       </c>
       <c r="B198" s="2">
         <v>879</v>
@@ -6670,7 +6670,7 @@
     <row r="199" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65702350336358661</v>
+        <v>0.86314279717221154</v>
       </c>
       <c r="B199" s="2">
         <v>880</v>
@@ -6694,7 +6694,7 @@
     <row r="200" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26768925900348661</v>
+        <v>8.5216112009234291E-3</v>
       </c>
       <c r="B200" s="2">
         <v>881</v>
@@ -6715,7 +6715,7 @@
     <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60660833929046143</v>
+        <v>0.50721433305168362</v>
       </c>
       <c r="B201" s="2">
         <v>882</v>
@@ -6739,7 +6739,7 @@
     <row r="202" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68531969073794707</v>
+        <v>0.13591587991760889</v>
       </c>
       <c r="B202" s="2">
         <v>883</v>
@@ -6760,7 +6760,7 @@
     <row r="203" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84957770775381103</v>
+        <v>0.89632080118299862</v>
       </c>
       <c r="B203" s="2">
         <v>884</v>
@@ -6781,7 +6781,7 @@
     <row r="204" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8706293292927465</v>
+        <v>0.86980615413421802</v>
       </c>
       <c r="B204" s="2">
         <v>885</v>
@@ -6802,7 +6802,7 @@
     <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56256534795221602</v>
+        <v>0.35857907084012708</v>
       </c>
       <c r="B205" s="2">
         <v>886</v>
@@ -6823,7 +6823,7 @@
     <row r="206" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94069996426180824</v>
+        <v>8.2098886405569838E-2</v>
       </c>
       <c r="B206" s="2">
         <v>887</v>
@@ -6844,7 +6844,7 @@
     <row r="207" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67235866093328511</v>
+        <v>0.13557058745355233</v>
       </c>
       <c r="B207" s="2">
         <v>888</v>
@@ -6868,7 +6868,7 @@
     <row r="208" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87739153042160278</v>
+        <v>0.46783797556235862</v>
       </c>
       <c r="B208" s="2">
         <v>889</v>
@@ -6892,7 +6892,7 @@
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45865245791943299</v>
+        <v>0.53114089403602005</v>
       </c>
       <c r="B209" s="2">
         <v>890</v>
@@ -6913,7 +6913,7 @@
     <row r="210" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52137310972480921</v>
+        <v>0.51854394443322271</v>
       </c>
       <c r="B210" s="2">
         <v>891</v>
@@ -6937,7 +6937,7 @@
     <row r="211" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8614412384228136E-2</v>
+        <v>0.57416560201487932</v>
       </c>
       <c r="B211" s="2">
         <v>892</v>
@@ -6961,7 +6961,7 @@
     <row r="212" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97013811771073788</v>
+        <v>0.2355765322529354</v>
       </c>
       <c r="B212" s="2">
         <v>893</v>
@@ -6994,7 +6994,7 @@
     <row r="213" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28519526278148344</v>
+        <v>0.73350662318627058</v>
       </c>
       <c r="B213" s="2">
         <v>894</v>
@@ -7018,7 +7018,7 @@
     <row r="214" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.262293872512943</v>
+        <v>0.4635501516134739</v>
       </c>
       <c r="B214" s="2">
         <v>895</v>
@@ -7042,7 +7042,7 @@
     <row r="215" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5568652042208132</v>
+        <v>0.76991123834243491</v>
       </c>
       <c r="B215" s="2">
         <v>896</v>
@@ -7069,7 +7069,7 @@
     <row r="216" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34233654867937402</v>
+        <v>0.39469176029110442</v>
       </c>
       <c r="B216" s="2">
         <v>897</v>
@@ -7090,7 +7090,7 @@
     <row r="217" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65695823743308446</v>
+        <v>0.91218052982011832</v>
       </c>
       <c r="B217" s="2">
         <v>898</v>
@@ -7111,7 +7111,7 @@
     <row r="218" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97260593192467693</v>
+        <v>0.54199258758218638</v>
       </c>
       <c r="B218" s="2">
         <v>899</v>
@@ -7132,7 +7132,7 @@
     <row r="219" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8134953188711832</v>
+        <v>0.97947975488799643</v>
       </c>
       <c r="B219" s="2">
         <v>900</v>
@@ -7159,7 +7159,7 @@
     <row r="220" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44186082167075491</v>
+        <v>0.53216542123983668</v>
       </c>
       <c r="B220" s="2">
         <v>901</v>
@@ -7180,7 +7180,7 @@
     <row r="221" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60246169877537115</v>
+        <v>0.19183468721861174</v>
       </c>
       <c r="B221" s="2">
         <v>902</v>
@@ -7210,7 +7210,7 @@
     <row r="222" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47358945514485207</v>
+        <v>0.56894680252917373</v>
       </c>
       <c r="B222" s="2">
         <v>903</v>
@@ -7231,7 +7231,7 @@
     <row r="223" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50890815311935833</v>
+        <v>0.93406629029510146</v>
       </c>
       <c r="B223" s="2">
         <v>904</v>
@@ -7264,7 +7264,7 @@
     <row r="224" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82269297880656223</v>
+        <v>0.85086476322043569</v>
       </c>
       <c r="B224" s="2">
         <v>905</v>
@@ -7285,7 +7285,7 @@
     <row r="225" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12674944062478755</v>
+        <v>9.2632758315697505E-2</v>
       </c>
       <c r="B225" s="2">
         <v>906</v>
@@ -7306,7 +7306,7 @@
     <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3337411957275731E-2</v>
+        <v>0.73414212239125665</v>
       </c>
       <c r="B226" s="2">
         <v>907</v>
@@ -7330,7 +7330,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60242883386438117</v>
+        <v>0.21127170162783659</v>
       </c>
       <c r="B227" s="2">
         <v>908</v>
@@ -7357,7 +7357,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5975603250031214</v>
+        <v>0.85035785195260705</v>
       </c>
       <c r="B228" s="2">
         <v>909</v>
@@ -7384,7 +7384,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6653509610475391</v>
+        <v>6.026170098345407E-2</v>
       </c>
       <c r="B229" s="2">
         <v>910</v>
@@ -7405,7 +7405,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63253018127632377</v>
+        <v>0.24466495122230403</v>
       </c>
       <c r="B230" s="2">
         <v>911</v>
@@ -7429,7 +7429,7 @@
     <row r="231" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63915478009870885</v>
+        <v>0.90531208644205052</v>
       </c>
       <c r="B231" s="2">
         <v>912</v>
@@ -7453,7 +7453,7 @@
     <row r="232" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96611740941358604</v>
+        <v>8.2123902904422286E-2</v>
       </c>
       <c r="B232" s="2">
         <v>913</v>
@@ -7474,7 +7474,7 @@
     <row r="233" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10566699718237549</v>
+        <v>0.64989834363918764</v>
       </c>
       <c r="B233" s="2">
         <v>914</v>
@@ -7501,7 +7501,7 @@
     <row r="234" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80619600887528153</v>
+        <v>0.36454226951294044</v>
       </c>
       <c r="B234" s="2">
         <v>915</v>
@@ -7522,7 +7522,7 @@
     <row r="235" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48173495605303329</v>
+        <v>0.5196583085376022</v>
       </c>
       <c r="B235" s="2">
         <v>916</v>
@@ -7546,7 +7546,7 @@
     <row r="236" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37135310044100844</v>
+        <v>0.73317383404542447</v>
       </c>
       <c r="B236" s="2">
         <v>917</v>
@@ -7570,7 +7570,7 @@
     <row r="237" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51913497953857746</v>
+        <v>0.91690948457157118</v>
       </c>
       <c r="B237" s="2">
         <v>918</v>
@@ -7594,7 +7594,7 @@
     <row r="238" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72054644836972093</v>
+        <v>0.77720789624173503</v>
       </c>
       <c r="B238" s="2">
         <v>919</v>
@@ -7618,7 +7618,7 @@
     <row r="239" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39667377736168918</v>
+        <v>0.91196935792943434</v>
       </c>
       <c r="B239" s="2">
         <v>920</v>
@@ -7642,7 +7642,7 @@
     <row r="240" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2638895624691473</v>
+        <v>0.84868305855930803</v>
       </c>
       <c r="B240" s="2">
         <v>921</v>
@@ -7666,7 +7666,7 @@
     <row r="241" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64313635764664168</v>
+        <v>0.28220092719857137</v>
       </c>
       <c r="B241" s="2">
         <v>922</v>
@@ -7693,7 +7693,7 @@
     <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20990032646276391</v>
+        <v>0.96166919072720491</v>
       </c>
       <c r="B242" s="2">
         <v>923</v>
@@ -7717,7 +7717,7 @@
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41712894061372452</v>
+        <v>0.16498137274547764</v>
       </c>
       <c r="B243" s="2">
         <v>924</v>
@@ -7741,7 +7741,7 @@
     <row r="244" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55420147650963381</v>
+        <v>3.1624388288253646E-2</v>
       </c>
       <c r="B244" s="2">
         <v>925</v>
@@ -7765,7 +7765,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1178541942117342E-3</v>
+        <v>0.25757411731060542</v>
       </c>
       <c r="B245" s="2">
         <v>926</v>
@@ -7789,7 +7789,7 @@
     <row r="246" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35958360635803754</v>
+        <v>0.80364959845596917</v>
       </c>
       <c r="B246" s="2">
         <v>927</v>
@@ -7813,7 +7813,7 @@
     <row r="247" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45229502549496703</v>
+        <v>0.5026191130937635</v>
       </c>
       <c r="B247" s="2">
         <v>928</v>
@@ -7840,7 +7840,7 @@
     <row r="248" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18583868878451204</v>
+        <v>0.90279579978991764</v>
       </c>
       <c r="B248" s="2">
         <v>929</v>
@@ -7864,7 +7864,7 @@
     <row r="249" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84398797294967909</v>
+        <v>0.10298801628889576</v>
       </c>
       <c r="B249" s="2">
         <v>930</v>
@@ -7888,7 +7888,7 @@
     <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75392667690843918</v>
+        <v>0.38330389343131732</v>
       </c>
       <c r="B250" s="2">
         <v>931</v>
@@ -7912,7 +7912,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28918918818868489</v>
+        <v>0.24544884492554142</v>
       </c>
       <c r="B251" s="2">
         <v>932</v>
@@ -7939,7 +7939,7 @@
     <row r="252" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33048248235095612</v>
+        <v>0.13945100974965174</v>
       </c>
       <c r="B252" s="2">
         <v>933</v>
@@ -7963,7 +7963,7 @@
     <row r="253" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65666857703707038</v>
+        <v>0.38513942992943706</v>
       </c>
       <c r="B253" s="2">
         <v>934</v>
@@ -7987,7 +7987,7 @@
     <row r="254" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5720955296021928E-2</v>
+        <v>0.78627309109366272</v>
       </c>
       <c r="B254" s="2">
         <v>935</v>
@@ -8011,7 +8011,7 @@
     <row r="255" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32358386263592509</v>
+        <v>0.42459180919925676</v>
       </c>
       <c r="B255" s="2">
         <v>936</v>
@@ -8035,7 +8035,7 @@
     <row r="256" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95060952286072964</v>
+        <v>6.5265880891716366E-2</v>
       </c>
       <c r="B256" s="2">
         <v>937</v>
@@ -8059,7 +8059,7 @@
     <row r="257" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71283299162722868</v>
+        <v>0.96811127378991624</v>
       </c>
       <c r="B257" s="2">
         <v>938</v>
@@ -8083,7 +8083,7 @@
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A305" ca="1" si="4">RAND()</f>
-        <v>0.15987217784889396</v>
+        <v>0.50068883392055552</v>
       </c>
       <c r="B258" s="2">
         <v>939</v>
@@ -8107,7 +8107,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57392945294776587</v>
+        <v>0.69016431185942062</v>
       </c>
       <c r="B259" s="2">
         <v>940</v>
@@ -8128,7 +8128,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40030746692800723</v>
+        <v>0.84817686752891264</v>
       </c>
       <c r="B260" s="2">
         <v>941</v>
@@ -8152,7 +8152,7 @@
     <row r="261" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15946006630174236</v>
+        <v>0.67418283199169804</v>
       </c>
       <c r="B261" s="2">
         <v>942</v>
@@ -8176,7 +8176,7 @@
     <row r="262" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34964674338663804</v>
+        <v>0.29221298145666441</v>
       </c>
       <c r="B262" s="2">
         <v>943</v>
@@ -8203,7 +8203,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88348665295526485</v>
+        <v>0.88079393381708726</v>
       </c>
       <c r="B263" s="2">
         <v>944</v>
@@ -8230,7 +8230,7 @@
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71907408538430395</v>
+        <v>3.4601260364825914E-2</v>
       </c>
       <c r="B264" s="2">
         <v>945</v>
@@ -8257,7 +8257,7 @@
     <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1808539982272777E-2</v>
+        <v>0.80234764836141337</v>
       </c>
       <c r="B265" s="2">
         <v>946</v>
@@ -8281,7 +8281,7 @@
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54491431181360273</v>
+        <v>0.8613756236124761</v>
       </c>
       <c r="B266" s="2">
         <v>947</v>
@@ -8302,7 +8302,7 @@
     <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63478141847656477</v>
+        <v>0.90233981967124322</v>
       </c>
       <c r="B267" s="2">
         <v>948</v>
@@ -8326,7 +8326,7 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.301878093437289</v>
+        <v>0.40766834449433231</v>
       </c>
       <c r="B268" s="2">
         <v>949</v>
@@ -8350,7 +8350,7 @@
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63799509102090035</v>
+        <v>0.82144033749377976</v>
       </c>
       <c r="B269" s="2">
         <v>950</v>
@@ -8377,7 +8377,7 @@
     <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57961741463545002</v>
+        <v>0.18800949470458928</v>
       </c>
       <c r="B270" s="2">
         <v>951</v>
@@ -8401,7 +8401,7 @@
     <row r="271" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20554345502833404</v>
+        <v>6.2917132874055204E-2</v>
       </c>
       <c r="B271" s="2">
         <v>952</v>
@@ -8422,7 +8422,7 @@
     <row r="272" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1295829289065296E-3</v>
+        <v>0.99674390621853037</v>
       </c>
       <c r="B272" s="2">
         <v>953</v>
@@ -8446,7 +8446,7 @@
     <row r="273" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26245877687223762</v>
+        <v>0.16700938632305862</v>
       </c>
       <c r="B273" s="2">
         <v>954</v>
@@ -8473,7 +8473,7 @@
     <row r="274" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7288005624150715E-2</v>
+        <v>0.57255404130309928</v>
       </c>
       <c r="B274" s="2">
         <v>955</v>
@@ -8494,7 +8494,7 @@
     <row r="275" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3704955894042723</v>
+        <v>0.73225987851830177</v>
       </c>
       <c r="B275" s="2">
         <v>956</v>
@@ -8518,7 +8518,7 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86970247873117823</v>
+        <v>0.56148106010280863</v>
       </c>
       <c r="B276" s="2">
         <v>957</v>
@@ -8542,7 +8542,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94955682806373454</v>
+        <v>4.8284903836002813E-2</v>
       </c>
       <c r="B277" s="2">
         <v>958</v>
@@ -8563,7 +8563,7 @@
     <row r="278" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47384404208352005</v>
+        <v>0.58450099769648467</v>
       </c>
       <c r="B278" s="2">
         <v>959</v>
@@ -8587,7 +8587,7 @@
     <row r="279" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54450857584333112</v>
+        <v>0.72992520050031928</v>
       </c>
       <c r="B279" s="2">
         <v>960</v>
@@ -8617,7 +8617,7 @@
     <row r="280" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38529934050031811</v>
+        <v>0.54940606069104914</v>
       </c>
       <c r="B280" s="2">
         <v>961</v>
@@ -8644,7 +8644,7 @@
     <row r="281" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77390293333683469</v>
+        <v>0.77420541053955627</v>
       </c>
       <c r="B281" s="2">
         <v>962</v>
@@ -8668,7 +8668,7 @@
     <row r="282" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57466505038979421</v>
+        <v>0.60348112553899624</v>
       </c>
       <c r="B282" s="2">
         <v>963</v>
@@ -8692,7 +8692,7 @@
     <row r="283" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83982516937676543</v>
+        <v>0.92795159948913342</v>
       </c>
       <c r="B283" s="2">
         <v>964</v>
@@ -8719,7 +8719,7 @@
     <row r="284" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67457366146673503</v>
+        <v>0.80815047670350393</v>
       </c>
       <c r="B284" s="2">
         <v>965</v>
@@ -8746,7 +8746,7 @@
     <row r="285" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36901880718992741</v>
+        <v>0.67470824794983231</v>
       </c>
       <c r="B285" s="2">
         <v>966</v>
@@ -8773,7 +8773,7 @@
     <row r="286" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51010656905826868</v>
+        <v>0.44912781149171788</v>
       </c>
       <c r="B286" s="2">
         <v>967</v>
@@ -8794,7 +8794,7 @@
     <row r="287" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63139407510395074</v>
+        <v>0.51364469529935441</v>
       </c>
       <c r="B287" s="2">
         <v>968</v>
@@ -8821,7 +8821,7 @@
     <row r="288" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6055121676492774</v>
+        <v>0.98480036691029593</v>
       </c>
       <c r="B288" s="2">
         <v>969</v>
@@ -8842,7 +8842,7 @@
     <row r="289" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27545614766025128</v>
+        <v>0.46804119196664906</v>
       </c>
       <c r="B289" s="2">
         <v>970</v>
@@ -8863,7 +8863,7 @@
     <row r="290" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44946268833669145</v>
+        <v>0.35600521629441861</v>
       </c>
       <c r="B290" s="2">
         <v>971</v>
@@ -8887,7 +8887,7 @@
     <row r="291" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25442606131466983</v>
+        <v>0.71762457332457052</v>
       </c>
       <c r="B291" s="2">
         <v>972</v>
@@ -8911,7 +8911,7 @@
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50370252335549315</v>
+        <v>0.35082896494219373</v>
       </c>
       <c r="B292" s="2">
         <v>973</v>
@@ -8932,7 +8932,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3980789503909063E-3</v>
+        <v>6.176788762744112E-2</v>
       </c>
       <c r="B293" s="2">
         <v>974</v>
@@ -8953,7 +8953,7 @@
     <row r="294" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34288739748673913</v>
+        <v>0.7238749965084148</v>
       </c>
       <c r="B294" s="2">
         <v>975</v>
@@ -8980,7 +8980,7 @@
     <row r="295" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45626573998646114</v>
+        <v>0.60230668243689267</v>
       </c>
       <c r="B295" s="2">
         <v>976</v>
@@ -9001,7 +9001,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35189016075720869</v>
+        <v>0.74788082930070487</v>
       </c>
       <c r="B296" s="2">
         <v>977</v>
@@ -9022,7 +9022,7 @@
     <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5952840484446273E-2</v>
+        <v>0.287402662650733</v>
       </c>
       <c r="B297" s="2">
         <v>978</v>
@@ -9046,7 +9046,7 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17848433152266929</v>
+        <v>0.6176703565391396</v>
       </c>
       <c r="B298" s="2">
         <v>979</v>
@@ -9067,7 +9067,7 @@
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8205736868863109E-2</v>
+        <v>0.44926277090632183</v>
       </c>
       <c r="B299" s="2">
         <v>980</v>
@@ -9091,7 +9091,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80640337945822937</v>
+        <v>0.28373674676483229</v>
       </c>
       <c r="B300" s="2">
         <v>981</v>
@@ -9112,7 +9112,7 @@
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2433681974998168E-2</v>
+        <v>0.53778882286020124</v>
       </c>
       <c r="B301" s="2">
         <v>982</v>
@@ -9136,7 +9136,7 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9313651302963708</v>
+        <v>0.37831220434716006</v>
       </c>
       <c r="B302" s="2">
         <v>983</v>
@@ -9160,7 +9160,7 @@
     <row r="303" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76699021110044119</v>
+        <v>0.67840703682303438</v>
       </c>
       <c r="B303" s="2">
         <v>984</v>
@@ -9184,7 +9184,7 @@
     <row r="304" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91463037980987627</v>
+        <v>9.1975333904744216E-2</v>
       </c>
       <c r="B304" s="2">
         <v>985</v>
@@ -9205,7 +9205,7 @@
     <row r="305" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45612504205429805</v>
+        <v>0.12850644284480395</v>
       </c>
       <c r="B305" s="2">
         <v>986</v>
@@ -9240,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
